--- a/medicine/Mort/Décès_en_1892/Décès_en_1892.xlsx
+++ b/medicine/Mort/Décès_en_1892/Décès_en_1892.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1892</t>
+          <t>Décès_en_1892</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1892</t>
+          <t>Décès_en_1892</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,27 +537,134 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Date précise inconnue
-Gaetano Bianchi, restaurateur d'art et peintre italien (° février 1819).
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gaetano Bianchi, restaurateur d'art et peintre italien (° février 1819).
 Pétros Mavromichális, juriste et homme politique grec (° 1828).
 Serafino De Tivoli, peintre italien du mouvement des Macchiaioli (° 1826).
 Casimir Théophile Lalliet, compositeur français (° 2 décembre 1837).
 Periklís Petrákis, homme politique grec (° 1832).
-Domenico Tojetti, peintre italo-américain (° 1807).
-Janvier
-9 janvier : Charles Müller, peintre français (° 28 décembre 1815).
+Domenico Tojetti, peintre italo-américain (° 1807).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9 janvier : Charles Müller, peintre français (° 28 décembre 1815).
 10 janvier : Heinrich Dorn, compositeur de musique romantique allemand (° 14 novembre 1804).
 18 janvier :  Pierre François Riga, violoniste et compositeur belge (° 21 janvier 1831).
 27 janvier : Ludwig von Haber von Linsberg, financier et homme politique autrichien (° 15 juillet 1804)
-31 janvier : Charles-Haddon Spurgeon, évangélisateur britannique (° 19 juin 1834).
-Février
-1er février : Goseda Hōriū, peintre japonais (° 26 février 1827).
+31 janvier : Charles-Haddon Spurgeon, évangélisateur britannique (° 19 juin 1834).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Goseda Hōriū, peintre japonais (° 26 février 1827).
 14 février : Catherine Gage, botaniste irlandaise (° 18 mai 1815).
 20 février : Róza Csillag, chanteuse austro-hongroise mezzo-soprano d'opéra (° 23 octobre 1832).
 23 février : Gaspard Mermillod, cardinal suisse, évêque catholique de Lausanne et Genève (° 22 septembre 1824).
-29 février : Evgraf Sorokine,  peintre russe (° 18 décembre 1821).
-Mars
-2 mars : Annibale De Gasparis, astronome et mathématicien italien (° 9 novembre 1819).
+29 février : Evgraf Sorokine,  peintre russe (° 18 décembre 1821).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Annibale De Gasparis, astronome et mathématicien italien (° 9 novembre 1819).
 6 mars : Mișu Popp, peintre roumain (° 19 mars 1827).
 8 mars :
 Benno Adam, peintre allemand (° 15 juillet 1812).
@@ -561,56 +680,328 @@
 Walt Whitman, poète et humaniste américain (° 31 mai 1819).
 George Yule, homme d'affaires écossais (° 1829).
 29 mars : Joseph de Riquet de Caraman, diplomate et homme politique belge (° 9 octobre 1836).
-31 mars : Louis-Napoléon Fortin, médecin et homme politique canadien (° 8 août 1850).
-Avril
-8 avril : Silvino Elvídio Carneiro da Cunha, homme politique brésilien (° 31 août 1813).
+31 mars : Louis-Napoléon Fortin, médecin et homme politique canadien (° 8 août 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8 avril : Silvino Elvídio Carneiro da Cunha, homme politique brésilien (° 31 août 1813).
 19 avril : Johann Peter Cavallo, organiste, pianiste et compositeur d'origine allemande (° 23 décembre 1819).
 22 avril :
 Franz Xaver D'Abancourt de Franqueville, économiste et publiciste (° 28 janvier 1815).
-Édouard Lalo, compositeur français (° 27 janvier 1823).
-Mai
-2 mai : Wilhelm Rust, musicologue et un compositeur allemand (° 15 août 1822).
+Édouard Lalo, compositeur français (° 27 janvier 1823).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : Wilhelm Rust, musicologue et un compositeur allemand (° 15 août 1822).
 6 mai : Ernest Guiraud, compositeur et professeur de musique français (° 23 juin 1837).
 13 mai : Ferdinand Poise, compositeur et auteur d’opéra-comiques français (° 3 juin 1828).
 17 mai :  Claudius Popelin, peintre, émailleur et poète français (° 2 novembre 1825).
 18 mai : Émile Boucher, parfumeur français (° 1842).
 20 mai : Jules Duprato, compositeur français (° 20 août 1827).
 23 mai : Joseph Martin, géologue, topographe et explorateur français (° 15 août 1848).
-27 mai : Eugène Lagier, peintre français (° 17 janvier 1817).
-Juin
-1er juin : Louis Janmot, peintre et poète français (° 21 mai 1814).
+27 mai : Eugène Lagier, peintre français (° 17 janvier 1817).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Louis Janmot, peintre et poète français (° 21 mai 1814).
 9 juin :
 William Grant Stairs, explorateur canadien continent d'Afrique (° 1er juillet 1863).
 Yoshitoshi, graveur et peintre japonais (° 30 avril 1839).
 25 juin : Eduard Herbst, juriste et homme politique autrichien (° 9 décembre 1820).
 26 juin : Félix Brissot de Warville, peintre français (° 7 mai 1818).
-29 juin :  Pashko Vasa, homme politique albanais (° 1825).
-Juillet
-Août
-2 août : Joseph Stevens, peintre animalier et graveur belge (° 26 novembre 1816).
+29 juin :  Pashko Vasa, homme politique albanais (° 1825).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 août : Joseph Stevens, peintre animalier et graveur belge (° 26 novembre 1816).
 15 août : Armand Limnander de Nieuwenhove, compositeur belge (° 22 mai 1814).
 25 août : Émile Taillebois, archéologue et numismate français (° 18 avril 1841).
-31 août : George William Curtis, écrivain et journaliste américain (° 24 février 1824).
-Septembre
-10 septembre : Dimítrios Bótsaris, combattant de la guerre d'indépendance grecque et homme politique hellène (° 1808).
+31 août : George William Curtis, écrivain et journaliste américain (° 24 février 1824).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10 septembre : Dimítrios Bótsaris, combattant de la guerre d'indépendance grecque et homme politique hellène (° 1808).
 20 septembre : Auguste Dumon, militaire, financier et homme politique belge (° 30 avril 1819).
 28 septembre : Stanislas Lépine, peintre paysagiste français (° 23 octobre 1835).
-30 septembre : Sébastien Charles Giraud, peintre et dessinateur français (° 18 juin 1819).
-Octobre
-4 octobre : Émile Signol, peintre français (° 8 mai 1804).
+30 septembre : Sébastien Charles Giraud, peintre et dessinateur français (° 18 juin 1819).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 octobre : Émile Signol, peintre français (° 8 mai 1804).
 12 octobre :
 Lothar Bucher, homme politique, fonctionnaire et journaliste prussien (° 25 octobre 1817).
 Leopold von Zenetti, compositeur autrichien (° 15 novembre 1805).
 18 octobre : Otto Baisch, peintre, poète et écrivain allemand (° 4 mai 1840).
 24 octobre : Charles Gosselin, peintre et conservateur de musée français († 26 janvier 1833).
-28 octobre : Felix Otto Dessoff, chef d'orchestre et compositeur allemand (° 14 janvier 1835).
-Novembre
-3 novembre : Louis-Auguste-Florimond Ronger dit Hervé, compositeur, auteur dramatique, acteur, chanteur, metteur en scène et directeur de troupe français (° 30 juin 1825).
+28 octobre : Felix Otto Dessoff, chef d'orchestre et compositeur allemand (° 14 janvier 1835).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 novembre : Louis-Auguste-Florimond Ronger dit Hervé, compositeur, auteur dramatique, acteur, chanteur, metteur en scène et directeur de troupe français (° 30 juin 1825).
 19 novembre : Antonio de Torres, luthier espagnol (° 13 juin 1817).
 26 novembre : Charles Martial Lavigerie, cardinal français, archevêque de Carthage (° 31 octobre 1825).
 29 novembre : Alexander Helwig Wyant, peintre américain spécialisé dans les paysages (° 11 janvier 1836).
-30 novembre : Pierre-Victor Galland, peintre décorateur et ornemaniste français (° 15 juillet 1822).
-Décembre
+30 novembre : Pierre-Victor Galland, peintre décorateur et ornemaniste français (° 15 juillet 1822).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1892</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1892</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Portail sur la mort   Portail des années 1890                    </t>
         </is>
       </c>
